--- a/Översikt HÖGSBY.xlsx
+++ b/Översikt HÖGSBY.xlsx
@@ -575,7 +575,7 @@
         <v>44438</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45611</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45224.36061342592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>44334</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45205</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>44559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45436</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45626</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45268</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44895</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45711</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45230</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44867</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44853</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45345</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45268</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44573</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>44982.430625</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>45903.69008101852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>45841.42056712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>45145</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>45848.3046875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>45848.29729166667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>45982.47710648148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45268</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45268</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44907</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45770</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45786.54461805556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44866</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44501.63425925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44831</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>44851.64049768518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44459.44981481481</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44568</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44603</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44816.59976851852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44504</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44307</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44609</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44559</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44272</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44271.44738425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44446</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44644</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44593.37407407408</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44818</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44551.5378587963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44539</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44461.37548611111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44365.48300925926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44880.54645833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44271.43744212963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>44315</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44607</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>44542</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44542</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>44809.56568287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44264</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44601</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44312.72291666667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44876.65719907408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44421.50768518518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45600</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>45040.67196759259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44886.45516203704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44895.60672453704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>45244</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>45012.47266203703</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>45111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45547.5249537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44559</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45266</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>45769.5946875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>45744.89434027778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>45268</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44886</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>45015.63715277778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45306</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44904</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45386.71230324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45481.59611111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45162</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>45729.53024305555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44981</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>45727.57010416667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>45789.51780092593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44950</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44729</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>45796</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>45626</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44991</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44987.50263888889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44861.56807870371</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45688</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45707.71280092592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>45707.74365740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>45708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45168</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44413.45931712963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45800.70418981482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45804.59537037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45727.58512731481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45804</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45546.66493055555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45804.54818287037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45804.55607638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45804.75068287037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45600</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45838.65675925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44623</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45546.67864583333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>45329</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>45562.28920138889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>45324.68684027778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>45239</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45896.31922453704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44677</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>45817.72613425926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44903.33788194445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>45897.45994212963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>45562.30304398148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45818</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45749.60484953703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>45901.70181712963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>45786.54319444444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45903.63909722222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>45370.48122685185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45903.62023148148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>45903.62221064815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>45903.54209490741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>45791.37925925926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>45189</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>45090.59741898148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>45090</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>45532.49380787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>45848.28428240741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45825.46209490741</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45825.46601851852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>45202</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44984.46820601852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45911.61324074074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45911.62422453704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45826.38111111111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>45545</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>45826.38655092593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>44271.46438657407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>45189</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>45154.65267361111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45279.52777777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45001.27540509259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45923.6091087963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45553</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45775</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45835.4666087963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>45835.45325231482</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>45691.52231481481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>45119.55300925926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45835.43494212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>45348.88706018519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>45930</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>45547.56364583333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45176.38636574074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45838.7009375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45838.69145833333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45838.68005787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45103.64608796296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45838.68266203703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45932</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45743</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45936.59734953703</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44552</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>45604</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>45842.47414351852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>45842.47575231481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44902.68434027778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45943.45310185185</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45320.60097222222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45842.68583333334</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45847.60380787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45847.60523148148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45259.53137731482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45946.73013888889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45946.74834490741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45946.74186342592</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45946.74065972222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45946.75296296296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45848.27699074074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45554.47412037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>45700</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>45700</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>45951.58292824074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45244</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45103.64746527778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45546.67172453704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44586</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45953</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45954.54008101852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44991.41760416667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>45954.55140046297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45954.50127314815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>45954.50335648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45775.67554398148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45173</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44543.30291666667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45957.87729166666</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45228.69381944444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45622</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45881.39194444445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45965.44003472223</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45880.4963425926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45882.43810185185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45966.5660300926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45720.6166087963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>45754.57780092592</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44993.36159722223</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>45883.40609953704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>45702</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>45740.81226851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>45707.7502662037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>45974.65711805555</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45721.46292824074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44725.91041666667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44413.45243055555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45789.52796296297</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45979.54237268519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>45979.77813657407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44625.57487268518</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44625.5828125</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>45204</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>45153.44043981482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>45217.5747337963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>45393.58290509259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44809.32202546296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>45460.47599537037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45720.63856481481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44981.49157407408</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45988.47612268518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45034.93412037037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>45337.6346875</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>45247</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>44861.83449074074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45414.3987037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45145</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45145.44652777778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45093</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>46037.43369212963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44966</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45071.43813657408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45994.61804398148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45614.5066087963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45320.60465277778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44341.83657407408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>46038.84462962963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>45105</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>46001.63753472222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>46001.62925925926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>45626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>45608.44456018518</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>46001.63546296296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44496</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45999.86409722222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>45999.89002314815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>45999.8912037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45999.88483796296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44876.46896990741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45755.63402777778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>45999.88630787037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>45274.47944444444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44470.63657407407</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44285</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>46048.60013888889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>46048.59372685185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45359.38108796296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>46007.69685185186</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>46007.69440972222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>46009.3731712963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>46051.46753472222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>45190</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>46008.53853009259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>46008.54106481482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45391.39916666667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44385.44460648148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>46013.49144675926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>46013.49144675926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>46013.46688657408</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>45085.48943287037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45058</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>46058.45555555556</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>45365.37284722222</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>46059.45513888889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44613</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45469.61905092592</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45348.89568287037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45194.70943287037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>45348.55726851852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44321</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44972</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45113.39403935185</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44879.2925</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45360.7003125</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>44907</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45366.49097222222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45588.60645833334</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45460.48354166667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>45447.43503472222</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>45126</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>45562.28719907408</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>45114.61946759259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45624.79982638889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>44601</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45355.72739583333</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>45256.8952199074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>45203.2680787037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45175.44179398148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>45547.53318287037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>44866.48024305556</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45700</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>45700</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44496.54194444444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>45460.48144675926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>44760</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>44879.29515046296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44987</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45393.36902777778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>44924.78539351852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>45758.62858796296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>45254.288125</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>45460.48450231482</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44868</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>45552.43846064815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44999</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>45600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>45546.67505787037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>45721.49203703704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>45721.49525462963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>45247</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45076.506875</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45288.50891203704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45341.54589120371</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44861</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45093</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45093.62174768518</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45183</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45239.37023148148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44907</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45608.44344907408</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>45624.8238425926</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45544.52295138889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44953</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>45775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>45203.26586805555</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>45203</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>44939</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>45614.58605324074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>45561.39777777778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>45581.86640046296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>45692</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44866.35103009259</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45638</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>45307</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>45523.65054398148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45782.74405092592</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>45785.48605324074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45170.34314814815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>45786.54587962963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45554.47766203704</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>45792.69271990741</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>45797.62496527778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45793.78212962963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45796.448125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
